--- a/Cleaning_Data_TextFunctons2.xlsx
+++ b/Cleaning_Data_TextFunctons2.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vinitpatel-my.sharepoint.com/personal/deborah_ashby_filtered_com/Documents/03 Training and Webinars/Cleaning Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Idongesit Ufot\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{928F539D-335E-46C7-8A3B-59C4F0B0AB01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2E6D31-060B-46B1-8808-A13DC0A4B0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ImportText1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>JUAREZ, JOSE ;41297;39000;ADMIN;INTERN</t>
   </si>
@@ -92,6 +101,9 @@
   </si>
   <si>
     <t>POSITION</t>
+  </si>
+  <si>
+    <t>uuu</t>
   </si>
 </sst>
 </file>
@@ -946,33 +958,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="47.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="36.5546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="3.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="21.109375" customWidth="1"/>
-    <col min="18" max="18" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="75.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="36.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
@@ -989,7 +1003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1061,8 +1075,11 @@
         <f>RIGHT(N2,P2-O2)</f>
         <v>Intern</v>
       </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1094,9 +1111,9 @@
         <f t="shared" ref="H3:H20" si="6">LEN(F3)</f>
         <v>36</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="2" t="e">
         <f t="shared" ref="I3:I20" si="7">VALUE(LEFT(F3,G3-1))</f>
-        <v>41363</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J20" si="8">RIGHT(F3,H3-G3)</f>
@@ -1135,7 +1152,7 @@
         <v>Trainee</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1167,9 +1184,9 @@
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>42124</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="8"/>
@@ -1208,7 +1225,7 @@
         <v>Sales Executive</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1240,9 +1257,9 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>39401</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="8"/>
@@ -1281,7 +1298,7 @@
         <v>Intern</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +1371,7 @@
         <v>Manager</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1386,9 +1403,9 @@
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>40021</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="8"/>
@@ -1427,7 +1444,7 @@
         <v>Cost Accountant</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1459,9 +1476,9 @@
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>40535</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="8"/>
@@ -1500,7 +1517,7 @@
         <v>Designer</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1532,9 +1549,9 @@
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>39288</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="8"/>
@@ -1573,7 +1590,7 @@
         <v>Sales Executive</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1646,7 +1663,7 @@
         <v>Sales Trainee</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1719,7 +1736,7 @@
         <v>Sales Executive</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +1809,7 @@
         <v>Senior Administrator</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1824,9 +1841,9 @@
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>40892</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="8"/>
@@ -1865,7 +1882,7 @@
         <v>Senior Technician</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1938,7 +1955,7 @@
         <v>Cost Accountant</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1972,7 +1989,7 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="7"/>
-        <v>41002</v>
+        <v>40972</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="8"/>
@@ -2011,7 +2028,7 @@
         <v>Vp</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2043,9 +2060,9 @@
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>39926</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="8"/>
@@ -2084,7 +2101,7 @@
         <v>Team Leader</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2116,9 +2133,9 @@
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>42210</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="8"/>
@@ -2157,7 +2174,7 @@
         <v>Trainee</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2191,7 +2208,7 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" si="7"/>
-        <v>41795</v>
+        <v>41765</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="8"/>
@@ -2230,7 +2247,7 @@
         <v>Intern</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2262,9 +2279,9 @@
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>40891</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="8"/>
@@ -2303,7 +2320,7 @@
         <v>Cost Accountant</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2335,9 +2352,9 @@
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>37071</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="8"/>
